--- a/05_contPlanilhas.xlsx
+++ b/05_contPlanilhas.xlsx
@@ -1310,13 +1310,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D101BFC-D9D9-48F5-BFF6-C1B2AE60AEE0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{468E01C8-DF0E-4120-8BD2-C2C47612EC6A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C1C33EF-4614-467D-B19E-D4D15600261D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EEA9AEA-C297-44CB-B11E-F4AA05AC2FB3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{822ABAED-23F3-49CD-89B6-3AFB1B546F29}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2618323-4B1E-4FC1-B74C-F8871E8433AF}"/>
 </file>
--- a/05_contPlanilhas.xlsx
+++ b/05_contPlanilhas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CRICIUMINHA</t>
+          <t>12 DE ABRIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PR0191000</t>
+          <t>PR0178000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ETIENE</t>
+          <t>CRICIUMINHA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PR0062000</t>
+          <t>PR0191000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -524,17 +524,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CANDOI</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MATA DO CAVERNOSO</t>
+          <t>ETIENE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PR0258000</t>
+          <t>PR0062000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -546,17 +546,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GENERAL CARNEIRO</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RIO CATEQUESE</t>
+          <t>RONDON III</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PR0255000</t>
+          <t>PR0063000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -568,17 +568,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GUARAPUAVA</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EUROPA</t>
+          <t>SANTA BÁRBARA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PR0234000</t>
+          <t>PR0175000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -590,17 +590,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GUARAPUAVA</t>
+          <t>BITURUNA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FAZENDA BANANAS</t>
+          <t>SONHO DE ROSE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PR0246000</t>
+          <t>PR0383000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -612,17 +612,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GUARAPUAVA</t>
+          <t>CANDOI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FAZENDA CAROLINA</t>
+          <t>8 DE OUTUBRO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PR0154000</t>
+          <t>PR0328000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -634,17 +634,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INACIO MARTINS</t>
+          <t>CANDOI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EVANDRO FRANCISCO</t>
+          <t>COLÔNIA SÃO JOÃO BATISTA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PR0375000</t>
+          <t>PR0015000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -656,17 +656,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INACIO MARTINS</t>
+          <t>CANDOI</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FAXINAL DOS RODRIGUES</t>
+          <t>MATA DO CAVERNOSO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PR0117000</t>
+          <t>PR0258000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -678,17 +678,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LAPA</t>
+          <t>CANDOI</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CONTESTADO</t>
+          <t>UNIÃO SÃO PEDRO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PR0259000</t>
+          <t>PR0385000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -700,17 +700,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LARANJAL</t>
+          <t>CANDOI</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CONQUISTA CAMPONESA</t>
+          <t>ÁGUAS DE SANTA CLARA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PR0311000</t>
+          <t>PR0237000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -722,17 +722,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LARANJAL</t>
+          <t>GENERAL CARNEIRO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FAZENDA CHAPADÃO</t>
+          <t>COLINA VERDE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PR0110000</t>
+          <t>PR0141000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -744,17 +744,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>GENERAL CARNEIRO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FAZENDA COVOZINHO</t>
+          <t>RECANTO BONITO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PR0018000</t>
+          <t>PR0240000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -766,17 +766,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>GENERAL CARNEIRO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FAZENDA MACHADO</t>
+          <t>RIO CATEQUESE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PR0059000</t>
+          <t>PR0255000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -788,17 +788,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MANOEL RIBAS</t>
+          <t>GUARAPUAVA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NOVA ITAÚNA</t>
+          <t>13 DE NOVEMBRO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PR0261000</t>
+          <t>PR0418000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -810,17 +810,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>GUARAPUAVA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>EUROPA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0234000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -832,17 +832,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>GUARAPUAVA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>FAZENDA BANANAS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0246000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -854,17 +854,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PINHAO</t>
+          <t>GUARAPUAVA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FAXINAL DOS RIBEIROS QUINHÃO 1- A</t>
+          <t>FAZENDA CAROLINA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PR0048000</t>
+          <t>PR0154000</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -876,17 +876,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PINHAO</t>
+          <t>GUARAPUAVA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FAXINAL DOS SILVÉRIOS</t>
+          <t>NOVA GERAÇÃO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PR0073000</t>
+          <t>PR0325000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -898,17 +898,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RESERVA</t>
+          <t>GUARAPUAVA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CRICIUMA</t>
+          <t>SÃO PEDRO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PR0058000</t>
+          <t>PR0077000</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -920,17 +920,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RESERVA</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RECANTO DA AMIZADE</t>
+          <t>BOM RETIRO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PR0249000</t>
+          <t>PR0074000</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -942,17 +942,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RESERVA</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RENASCENÇA</t>
+          <t>EVANDRO FRANCISCO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PR0204000</t>
+          <t>PR0375000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -964,17 +964,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FAZENDA RETIRO</t>
+          <t>FAXINAL DOS RODRIGUES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PR0079000</t>
+          <t>PR0117000</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -986,17 +986,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA APARECIDA II</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PR0331000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1008,17 +1008,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TIBAGI</t>
+          <t>LAPA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RANCHO ALEGRE</t>
+          <t>CONTESTADO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PR0228000</t>
+          <t>PR0259000</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1030,20 +1030,834 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>LARANJAL</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CONQUISTA CAMPONESA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PR0311000</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LARANJAL</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FAZENDA CHAPADÃO</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PR0110000</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LARANJAL</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PEDRA BRANCA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PR0142000</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ANJO DA GUARDA I</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ESPERANÇA VIVA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PR0329000</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FAZENDA COVOZINHO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PR0018000</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FAZENDA MACHADO</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PR0059000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NATAL DA ESPERANÇA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PR0248000</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TRÊS CAPÕES</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PR0016000</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>VITÓRIA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PR0285000</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>VITÓRIA DA UNIÃO DO PARANÁ</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PR0017000</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MANOEL RIBAS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NOVA ITAÚNA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PR0261000</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MARMELEIRO</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ANJO DA GUARDA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PR0145000</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MARMELEIRO</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>EDUARDO RADUAN</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PR0207000</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MARMELEIRO</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FAZENDA PERSEVERANÇA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PR0028000</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MARMELEIRO</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>KARL MARX</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PR0333000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MARMELEIRO</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SÃO JORGE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PR0133000</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PINHAO</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FAXINAL DOS RIBEIROS QUINHÃO 1- A</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PR0048000</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PINHAO</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FAXINAL DOS SILVÉRIOS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PR0073000</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>RESERVA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CAIÇARA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PR0106000</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>RESERVA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CRICIUMA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PR0058000</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>RESERVA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>FAZENDA BARREIROS</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PR0263000</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>RESERVA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>FIO DE OURO</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PR0032000</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>RESERVA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PAINEIRA</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PR0302000</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>RESERVA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>RECANTO DA AMIZADE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PR0249000</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>RESERVA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RENASCENÇA</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PR0204000</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>RESERVA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>RODEIO</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PR0236000</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>RESERVA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SANTA HELENA</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PR0031000</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>RESERVA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SINHÁ ANA</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PR0107000</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>TIBAGI</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BOA VISTA</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PR0149000</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DONA TONIA</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PR0244000</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>FAZENDA RETIRO</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PR0079000</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MENINO JESUS</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PR0161000</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>NOSSA SENHORA APARECIDA</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PR0407000</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>RANCHO ALEGRE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PR0228000</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>RINCÃO</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PR0200000</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TIBAGI</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>VASTO HORIZONTE</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>PR0026000</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1310,13 +2124,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{468E01C8-DF0E-4120-8BD2-C2C47612EC6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F46E9A6F-EDD9-46B1-B09F-EE00E68CA3A7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EEA9AEA-C297-44CB-B11E-F4AA05AC2FB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BA31E2-D611-4AAF-AC45-E43A206E6B46}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2618323-4B1E-4FC1-B74C-F8871E8433AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC157F95-CB2C-4C61-AFDC-B6A1637A218F}"/>
 </file>
--- a/05_contPlanilhas.xlsx
+++ b/05_contPlanilhas.xlsx
@@ -2124,13 +2124,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F46E9A6F-EDD9-46B1-B09F-EE00E68CA3A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A69E6C98-9DE3-4390-90BB-EF7F1434918B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BA31E2-D611-4AAF-AC45-E43A206E6B46}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F35949-8E80-4F58-B0BC-1DA9FA798CDF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC157F95-CB2C-4C61-AFDC-B6A1637A218F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B98934-6900-4FFC-B5EA-F512551DC3F7}"/>
 </file>